--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_06.08.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700525.2937295</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700525.3545954</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700525.2937295.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700525.3545954.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2916.65</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2922.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>5.75</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700525.74652</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700526.215862</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700525.74652.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700526.215862.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>2927.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2925.25</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>2.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700526.229825</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700526.5709393</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700526.229825.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700526.5709393.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>2925.25</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2926.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.199999999999818</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700526.7539833</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700527.0581698</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700526.7539833.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.0581698.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>2928.45</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2926.05</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.399999999999636</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700527.0960686</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700527.808165</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.0960686.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.808165.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>2926.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2914.4</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-11.84999999999991</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700527.8460906</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700527.9328587</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.8460906.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.9328587.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>2915.2</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2913.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.699999999999818</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700527.9707575</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700528.1352894</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700527.9707575.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700528.1352894.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>2910.85</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2912.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.050000000000182</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700528.2948625</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700528.5771077</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700528.2948625.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700528.5771077.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>2917.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2912.1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>5.099999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700528.7346861</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700528.9201906</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700528.7346861.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700528.9201906.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2911.55</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2909.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.600000000000364</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700529.18249</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700529.3659997</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700529.18249.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700529.3659997.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>2903</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2907.35</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>4.349999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700529.5554926</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700529.8018327</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700529.5554926.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700529.8018327.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>2908.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2909.35</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700529.8905954</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700530.1628952</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700529.8905954.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700530.1628952.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>2906.05</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2913.45</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>7.399999999999636</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700530.1768582</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700530.7263908</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700530.1768582.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700530.7263908.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>2913.45</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2912.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700530.895907</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700531.171199</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700530.895907.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700531.171199.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>2916.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2914.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.900000000000091</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700531.2110934</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700531.5282438</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700531.2110934.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700531.5282438.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>2917</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2916.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.8000000000001819</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700532.0494437</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700532.2987597</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700532.0494437.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700532.2987597.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>2919.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>2918.85</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3499999999999091</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700532.783094</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700533.3815224</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700532.783094.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700533.3815224.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>2917.45</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>2911.7</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-5.75</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700533.4972124</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700534.9852064</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700533.4972124.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700534.9852064.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>2905.4</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>2896.1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-9.300000000000182</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700535.4489658</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700535.5636594</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700535.4489658.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700535.5636594.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>2897.95</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>2892.55</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>5.399999999999636</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700535.7292166</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700536.0453978</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700535.7292166.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700536.0453978.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>2892.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>2894.65</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2.550000000000182</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700536.1331651</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700536.501151</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700536.1331651.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700536.501151.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>2895.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>2893.7</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.900000000000091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700536.5151138</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700537.0606802</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700536.5151138.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700537.0606802.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>2893.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>2887</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-6.699999999999818</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700537.382821</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700537.4481432</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700537.382821.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700537.4481432.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>2881.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>2885.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700537.5109742</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700538.4155288</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700537.5109742.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700538.4155288.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>2889.65</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>2897.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-7.549999999999727</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700539.3221328</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700539.5674472</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700539.3221328.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700539.5674472.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>2903.95</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>2899.85</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>4.099999999999909</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700539.9165413</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731700540.036734</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700539.9165413.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.036734.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>2905.85</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>2902.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731700540.30801</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731700540.3489337</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.30801.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.3489337.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>2907.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>2901.55</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>5.849999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731700540.3638902</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731700540.6820269</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.3638902.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.6820269.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>2901.55</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>2900.05</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731700540.9493196</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731700541.1627514</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700540.9493196.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700541.1627514.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>2902.35</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>2900.95</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731700541.278442</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731700541.3951027</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700541.278442.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700541.3951027.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>2899.2</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>2901.35</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.150000000000091</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731700541.7880802</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731700542.0045013</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700541.7880802.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700542.0045013.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>2898.1</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>2900.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.700000000000273</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2151,51 +2353,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731700542.0942612</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731700542.9619412</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700542.0942612.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700542.9619412.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>2902.05</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>2904.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-2.149999999999636</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2203,44 +2411,50 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731700543.5384274</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700543.5384274.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700543.5384274.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>2904.75</v>
       </c>
-      <c r="J35" t="n">
-        <v>2904.75</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2909.55</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-4.800000000000182</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -2301,16 +2515,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.19999999999936</v>
+        <v>17.39999999999918</v>
       </c>
       <c r="C2" t="n">
         <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6727272727272534</v>
+        <v>0.5272727272727025</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7799999999999999</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
